--- a/biology/Botanique/Cornus_alba/Cornus_alba.xlsx
+++ b/biology/Botanique/Cornus_alba/Cornus_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cornus alba, le cornouiller blanc ou cornouiller de Tartarie, se présente sous la forme d'un grand buisson ou d'un arbuste. Il appartient à la famille des Cornaceae. Ses fleurs blanches apparaissent de fin mai à fin juillet.
 </t>
@@ -511,7 +523,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cornouiller blanc est originaire de Russie européenne et de Sibérie et pousse jusqu'au nord de la Corée et de la Mandchourie. Il est fort résistant au froid.
 </t>
@@ -542,7 +556,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La littérature ne donne aucune information sur la chimie des fruits de ces deux espèces. Le degré de toxicité n'est pas connu non plus. Dans le doute, il semble préférable de considérer les fruits de ces deux espèces comme potentiellement toxiques.
 </t>
@@ -573,7 +589,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">A titre décoratif, il est planté en dehors de ses aires d'origine, notamment en France, en particulier pour l'éclat de la couleur rouge vif de ses feuilles en automne et ensuite de ses tiges rouge vif. Ses couleurs dépassent en intensité celles du cornouiller sanguin aux mêmes saisons.
 </t>
@@ -604,7 +622,9 @@
           <t>Agriculture et horticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le cornouiller blanc se décline en différents cultivars, dont :
 Cornus alba 'Aurea', feuilles vert clair tirant sur le jaune;
@@ -624,7 +644,7 @@
 Cornus alba 'Sibirica', dit cornouiller de Sibérie, qui peut atteindre trois mètres de hauteur et de largeur et possède des tiges rouge vif en hiver;
 Cornus alba 'Sibirica Variegata'
 Cornus alba 'Spaethii'
-Cornus alba 'Variegata'[1]</t>
+Cornus alba 'Variegata'</t>
         </is>
       </c>
     </row>
